--- a/DCIT 65 - IT 3A/POINTS - IT 3A.xlsx
+++ b/DCIT 65 - IT 3A/POINTS - IT 3A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\DCIT 65 - IT 3A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\DCIT 65 - IT 3A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B823045-7AC9-4545-B2EA-06DA628641E0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD6415D-F473-440C-AECF-151C9118BC85}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20055" windowHeight="7185" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recitation" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="202">
   <si>
     <t>C</t>
   </si>
@@ -621,13 +621,22 @@
   </si>
   <si>
     <t>Project Sanctuary Event organizer</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Excess</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,8 +685,31 @@
       <name val="Lato"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -841,6 +873,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -965,7 +1002,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -973,8 +1010,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1264,17 +1304,72 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="10">
     <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
+    <cellStyle name="60% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Accent3" xfId="4" builtinId="37"/>
     <cellStyle name="Accent4" xfId="5" builtinId="41"/>
     <cellStyle name="Accent6" xfId="6" builtinId="49"/>
+    <cellStyle name="Neutral 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2169,14 +2264,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN60"/>
+  <dimension ref="A1:AQ60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
       <pane xSplit="5" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL33" sqref="AL33"/>
+      <selection pane="topRight" activeCell="AK3" sqref="AK3:AK33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -2186,7 +2281,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" ht="15">
       <c r="A1" s="80" t="s">
         <v>50</v>
       </c>
@@ -2237,8 +2332,15 @@
       <c r="AL1" s="79"/>
       <c r="AM1" s="79"/>
       <c r="AN1" s="79"/>
-    </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+      <c r="AO1" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP1" s="101">
+        <v>80</v>
+      </c>
+      <c r="AQ1" s="100"/>
+    </row>
+    <row r="2" spans="1:43" ht="15">
       <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
@@ -2357,8 +2459,17 @@
       <c r="AN2" s="20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO2" s="101" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP2" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="AQ2" s="101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="2" t="s">
         <v>171</v>
       </c>
@@ -2425,9 +2536,22 @@
         <v>2.6</v>
       </c>
       <c r="AM3" s="35"/>
-      <c r="AN3" s="35"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN3" s="35">
+        <v>68</v>
+      </c>
+      <c r="AO3" s="108">
+        <f>IF(AN3+AL3&gt;AQ3,AQ3,AN3+AL3)</f>
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AP3" s="108">
+        <f>IF(AN3+AL3&gt;AQ3,AL3+AN3-AQ3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -2494,9 +2618,22 @@
         <v>3.2</v>
       </c>
       <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN4" s="35">
+        <v>76</v>
+      </c>
+      <c r="AO4" s="108">
+        <f t="shared" ref="AO4:AO46" si="3">IF(AN4+AL4&gt;AQ4,AQ4,AN4+AL4)</f>
+        <v>79.2</v>
+      </c>
+      <c r="AP4" s="108">
+        <f t="shared" ref="AP4:AP51" si="4">IF(AN4+AL4&gt;AQ4,AL4+AN4-AQ4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="6" t="s">
         <v>75</v>
       </c>
@@ -2559,9 +2696,22 @@
         <v>3</v>
       </c>
       <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN5" s="35">
+        <v>75</v>
+      </c>
+      <c r="AO5" s="108">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="AP5" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="6" t="s">
         <v>172</v>
       </c>
@@ -2626,9 +2776,22 @@
         <v>1.6</v>
       </c>
       <c r="AM6" s="35"/>
-      <c r="AN6" s="35"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN6" s="35">
+        <v>67</v>
+      </c>
+      <c r="AO6" s="108">
+        <f t="shared" si="3"/>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="AP6" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="6" t="s">
         <v>173</v>
       </c>
@@ -2695,9 +2858,22 @@
         <v>0.7</v>
       </c>
       <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN7" s="35">
+        <v>60</v>
+      </c>
+      <c r="AO7" s="108">
+        <f t="shared" si="3"/>
+        <v>60.7</v>
+      </c>
+      <c r="AP7" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" s="6" t="s">
         <v>82</v>
       </c>
@@ -2764,9 +2940,22 @@
         <v>8</v>
       </c>
       <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN8" s="35">
+        <v>75</v>
+      </c>
+      <c r="AO8" s="108">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="AP8" s="108">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AQ8" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="6" t="s">
         <v>174</v>
       </c>
@@ -2833,9 +3022,22 @@
         <v>1.8</v>
       </c>
       <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN9" s="35">
+        <v>51</v>
+      </c>
+      <c r="AO9" s="108">
+        <f t="shared" si="3"/>
+        <v>52.8</v>
+      </c>
+      <c r="AP9" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" s="6" t="s">
         <v>175</v>
       </c>
@@ -2896,9 +3098,22 @@
         <v>0</v>
       </c>
       <c r="AM10" s="35"/>
-      <c r="AN10" s="35"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN10" s="35">
+        <v>66</v>
+      </c>
+      <c r="AO10" s="108">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="AP10" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="6" t="s">
         <v>176</v>
       </c>
@@ -2961,9 +3176,22 @@
         <v>0</v>
       </c>
       <c r="AM11" s="35"/>
-      <c r="AN11" s="35"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN11" s="35">
+        <v>68</v>
+      </c>
+      <c r="AO11" s="108">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="AP11" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="6" t="s">
         <v>177</v>
       </c>
@@ -3030,9 +3258,22 @@
         <v>0</v>
       </c>
       <c r="AM12" s="35"/>
-      <c r="AN12" s="35"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN12" s="35">
+        <v>67</v>
+      </c>
+      <c r="AO12" s="108">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="AP12" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" s="6" t="s">
         <v>93</v>
       </c>
@@ -3095,9 +3336,22 @@
         <v>0</v>
       </c>
       <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN13" s="35">
+        <v>67</v>
+      </c>
+      <c r="AO13" s="108">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="AP13" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="22" t="s">
         <v>170</v>
       </c>
@@ -3158,9 +3412,22 @@
         <v>0</v>
       </c>
       <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN14" s="35">
+        <v>54</v>
+      </c>
+      <c r="AO14" s="108">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="AP14" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" s="6" t="s">
         <v>96</v>
       </c>
@@ -3223,9 +3490,22 @@
         <v>0</v>
       </c>
       <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN15" s="35">
+        <v>68</v>
+      </c>
+      <c r="AO15" s="108">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="AP15" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" s="6" t="s">
         <v>178</v>
       </c>
@@ -3286,9 +3566,22 @@
         <v>0</v>
       </c>
       <c r="AM16" s="35"/>
-      <c r="AN16" s="35"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN16" s="35">
+        <v>52</v>
+      </c>
+      <c r="AO16" s="108">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="AP16" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43">
       <c r="A17" s="6" t="s">
         <v>101</v>
       </c>
@@ -3351,9 +3644,22 @@
         <v>4.8</v>
       </c>
       <c r="AM17" s="35"/>
-      <c r="AN17" s="35"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN17" s="35">
+        <v>71</v>
+      </c>
+      <c r="AO17" s="108">
+        <f t="shared" si="3"/>
+        <v>75.8</v>
+      </c>
+      <c r="AP17" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43">
       <c r="A18" s="6" t="s">
         <v>182</v>
       </c>
@@ -3418,9 +3724,22 @@
         <v>0.9</v>
       </c>
       <c r="AM18" s="35"/>
-      <c r="AN18" s="35"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN18" s="35">
+        <v>67</v>
+      </c>
+      <c r="AO18" s="108">
+        <f t="shared" si="3"/>
+        <v>67.900000000000006</v>
+      </c>
+      <c r="AP18" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43">
       <c r="A19" s="6" t="s">
         <v>106</v>
       </c>
@@ -3487,9 +3806,22 @@
         <v>0</v>
       </c>
       <c r="AM19" s="35"/>
-      <c r="AN19" s="35"/>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN19" s="35">
+        <v>51</v>
+      </c>
+      <c r="AO19" s="108">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="AP19" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43">
       <c r="A20" s="11" t="s">
         <v>183</v>
       </c>
@@ -3552,9 +3884,22 @@
         <v>1.2</v>
       </c>
       <c r="AM20" s="35"/>
-      <c r="AN20" s="35"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN20" s="35">
+        <v>69</v>
+      </c>
+      <c r="AO20" s="108">
+        <f t="shared" si="3"/>
+        <v>70.2</v>
+      </c>
+      <c r="AP20" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43">
       <c r="A21" s="6" t="s">
         <v>184</v>
       </c>
@@ -3607,7 +3952,7 @@
       <c r="AH21" s="33"/>
       <c r="AI21" s="33"/>
       <c r="AJ21" s="35">
-        <f t="shared" ref="AJ21:AJ22" si="3">SUM(F21:AI21)</f>
+        <f t="shared" ref="AJ21:AJ22" si="5">SUM(F21:AI21)</f>
         <v>133</v>
       </c>
       <c r="AK21" s="35">
@@ -3619,9 +3964,22 @@
         <v>3.3</v>
       </c>
       <c r="AM21" s="35"/>
-      <c r="AN21" s="35"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN21" s="35">
+        <v>68</v>
+      </c>
+      <c r="AO21" s="108">
+        <f t="shared" si="3"/>
+        <v>71.3</v>
+      </c>
+      <c r="AP21" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43">
       <c r="A22" s="22" t="s">
         <v>113</v>
       </c>
@@ -3672,7 +4030,7 @@
       <c r="AH22" s="33"/>
       <c r="AI22" s="33"/>
       <c r="AJ22" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>148</v>
       </c>
       <c r="AK22" s="35">
@@ -3684,9 +4042,22 @@
         <v>4.8</v>
       </c>
       <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN22" s="35">
+        <v>76</v>
+      </c>
+      <c r="AO22" s="108">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="AP22" s="108">
+        <f t="shared" si="4"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="AQ22" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43">
       <c r="A23" s="6" t="s">
         <v>189</v>
       </c>
@@ -3739,11 +4110,11 @@
       <c r="AH23" s="33"/>
       <c r="AI23" s="33"/>
       <c r="AJ23" s="35">
-        <f t="shared" ref="AJ23:AJ33" si="4">SUM(F23:AI23)</f>
+        <f t="shared" ref="AJ23:AJ33" si="6">SUM(F23:AI23)</f>
         <v>108</v>
       </c>
       <c r="AK23" s="35">
-        <f t="shared" ref="AK23:AK33" si="5">IF(AJ23&gt;100,AJ23-(AJ23-100),AJ23)</f>
+        <f t="shared" ref="AK23:AK33" si="7">IF(AJ23&gt;100,AJ23-(AJ23-100),AJ23)</f>
         <v>100</v>
       </c>
       <c r="AL23" s="35">
@@ -3751,9 +4122,22 @@
         <v>0.8</v>
       </c>
       <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN23" s="35">
+        <v>71</v>
+      </c>
+      <c r="AO23" s="108">
+        <f t="shared" si="3"/>
+        <v>71.8</v>
+      </c>
+      <c r="AP23" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43">
       <c r="A24" s="6" t="s">
         <v>179</v>
       </c>
@@ -3808,11 +4192,11 @@
       <c r="AH24" s="33"/>
       <c r="AI24" s="33"/>
       <c r="AJ24" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>96</v>
       </c>
       <c r="AK24" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="AL24" s="35">
@@ -3820,9 +4204,22 @@
         <v>0</v>
       </c>
       <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN24" s="35">
+        <v>69</v>
+      </c>
+      <c r="AO24" s="108">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="AP24" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43">
       <c r="A25" s="6" t="s">
         <v>180</v>
       </c>
@@ -3875,11 +4272,11 @@
       <c r="AH25" s="33"/>
       <c r="AI25" s="33"/>
       <c r="AJ25" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>94</v>
       </c>
       <c r="AK25" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>94</v>
       </c>
       <c r="AL25" s="35">
@@ -3887,9 +4284,22 @@
         <v>0</v>
       </c>
       <c r="AM25" s="35"/>
-      <c r="AN25" s="35"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN25" s="35">
+        <v>72</v>
+      </c>
+      <c r="AO25" s="108">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="AP25" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43">
       <c r="A26" s="22" t="s">
         <v>122</v>
       </c>
@@ -3944,11 +4354,11 @@
       <c r="AH26" s="33"/>
       <c r="AI26" s="33"/>
       <c r="AJ26" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>118</v>
       </c>
       <c r="AK26" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="AL26" s="35">
@@ -3956,9 +4366,22 @@
         <v>1.8</v>
       </c>
       <c r="AM26" s="35"/>
-      <c r="AN26" s="35"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN26" s="35">
+        <v>70</v>
+      </c>
+      <c r="AO26" s="108">
+        <f t="shared" si="3"/>
+        <v>71.8</v>
+      </c>
+      <c r="AP26" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43">
       <c r="A27" s="22" t="s">
         <v>125</v>
       </c>
@@ -4013,11 +4436,11 @@
       <c r="AH27" s="33"/>
       <c r="AI27" s="33"/>
       <c r="AJ27" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>148</v>
       </c>
       <c r="AK27" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="AL27" s="35">
@@ -4025,9 +4448,22 @@
         <v>4.8</v>
       </c>
       <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN27" s="35">
+        <v>75</v>
+      </c>
+      <c r="AO27" s="108">
+        <f t="shared" si="3"/>
+        <v>79.8</v>
+      </c>
+      <c r="AP27" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43">
       <c r="A28" s="6" t="s">
         <v>185</v>
       </c>
@@ -4080,11 +4516,11 @@
       <c r="AH28" s="33"/>
       <c r="AI28" s="33"/>
       <c r="AJ28" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>69</v>
       </c>
       <c r="AK28" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="AL28" s="35">
@@ -4092,9 +4528,22 @@
         <v>0</v>
       </c>
       <c r="AM28" s="35"/>
-      <c r="AN28" s="35"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN28" s="35">
+        <v>62</v>
+      </c>
+      <c r="AO28" s="108">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="AP28" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43">
       <c r="A29" s="22" t="s">
         <v>130</v>
       </c>
@@ -4145,11 +4594,11 @@
       <c r="AH29" s="33"/>
       <c r="AI29" s="33"/>
       <c r="AJ29" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="AK29" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="AL29" s="35">
@@ -4157,9 +4606,22 @@
         <v>3</v>
       </c>
       <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN29" s="35">
+        <v>76</v>
+      </c>
+      <c r="AO29" s="108">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="AP29" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43">
       <c r="A30" s="6" t="s">
         <v>186</v>
       </c>
@@ -4210,11 +4672,11 @@
       <c r="AH30" s="33"/>
       <c r="AI30" s="33"/>
       <c r="AJ30" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="AK30" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="AL30" s="35">
@@ -4222,9 +4684,22 @@
         <v>0</v>
       </c>
       <c r="AM30" s="35"/>
-      <c r="AN30" s="35"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN30" s="35">
+        <v>73</v>
+      </c>
+      <c r="AO30" s="108">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="AP30" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43">
       <c r="A31" s="6" t="s">
         <v>187</v>
       </c>
@@ -4279,11 +4754,11 @@
       <c r="AH31" s="33"/>
       <c r="AI31" s="33"/>
       <c r="AJ31" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="AK31" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="AL31" s="35">
@@ -4291,9 +4766,22 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AM31" s="35"/>
-      <c r="AN31" s="35"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN31" s="35">
+        <v>60</v>
+      </c>
+      <c r="AO31" s="108">
+        <f t="shared" si="3"/>
+        <v>62.3</v>
+      </c>
+      <c r="AP31" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43">
       <c r="A32" s="6" t="s">
         <v>181</v>
       </c>
@@ -4344,11 +4832,11 @@
       <c r="AH32" s="33"/>
       <c r="AI32" s="33"/>
       <c r="AJ32" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="AK32" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="AL32" s="35">
@@ -4356,9 +4844,22 @@
         <v>0</v>
       </c>
       <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN32" s="35">
+        <v>62</v>
+      </c>
+      <c r="AO32" s="108">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="AP32" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" s="6" t="s">
         <v>188</v>
       </c>
@@ -4413,11 +4914,11 @@
       <c r="AH33" s="33"/>
       <c r="AI33" s="33"/>
       <c r="AJ33" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>123</v>
       </c>
       <c r="AK33" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="AL33" s="35">
@@ -4425,9 +4926,22 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="AM33" s="35"/>
-      <c r="AN33" s="35"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AN33" s="35">
+        <v>69</v>
+      </c>
+      <c r="AO33" s="108">
+        <f t="shared" si="3"/>
+        <v>71.3</v>
+      </c>
+      <c r="AP33" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="22"/>
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
@@ -4464,11 +4978,11 @@
       <c r="AH34" s="33"/>
       <c r="AI34" s="33"/>
       <c r="AJ34" s="35">
-        <f t="shared" ref="AJ34:AJ60" si="6">SUM(F34:AI34)</f>
+        <f t="shared" ref="AJ34:AJ60" si="8">SUM(F34:AI34)</f>
         <v>0</v>
       </c>
       <c r="AK34" s="35">
-        <f t="shared" ref="AK34:AK60" si="7">IF(AJ34&gt;100,AJ34-(AJ34-100),AJ34)</f>
+        <f t="shared" ref="AK34:AK60" si="9">IF(AJ34&gt;100,AJ34-(AJ34-100),AJ34)</f>
         <v>0</v>
       </c>
       <c r="AL34" s="35">
@@ -4477,8 +4991,19 @@
       </c>
       <c r="AM34" s="35"/>
       <c r="AN34" s="35"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO34" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP34" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -4515,11 +5040,11 @@
       <c r="AH35" s="33"/>
       <c r="AI35" s="33"/>
       <c r="AJ35" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK35" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL35" s="35">
@@ -4528,8 +5053,19 @@
       </c>
       <c r="AM35" s="35"/>
       <c r="AN35" s="35"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO35" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP35" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -4566,11 +5102,11 @@
       <c r="AH36" s="33"/>
       <c r="AI36" s="33"/>
       <c r="AJ36" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK36" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL36" s="35">
@@ -4579,8 +5115,19 @@
       </c>
       <c r="AM36" s="35"/>
       <c r="AN36" s="35"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO36" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP36" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -4617,11 +5164,11 @@
       <c r="AH37" s="33"/>
       <c r="AI37" s="33"/>
       <c r="AJ37" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK37" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL37" s="35">
@@ -4630,8 +5177,19 @@
       </c>
       <c r="AM37" s="35"/>
       <c r="AN37" s="35"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO37" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP37" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -4668,11 +5226,11 @@
       <c r="AH38" s="33"/>
       <c r="AI38" s="33"/>
       <c r="AJ38" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK38" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL38" s="35">
@@ -4681,8 +5239,19 @@
       </c>
       <c r="AM38" s="35"/>
       <c r="AN38" s="35"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO38" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP38" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -4719,11 +5288,11 @@
       <c r="AH39" s="33"/>
       <c r="AI39" s="33"/>
       <c r="AJ39" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK39" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL39" s="35">
@@ -4732,8 +5301,19 @@
       </c>
       <c r="AM39" s="35"/>
       <c r="AN39" s="35"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO39" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP39" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -4770,11 +5350,11 @@
       <c r="AH40" s="33"/>
       <c r="AI40" s="33"/>
       <c r="AJ40" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK40" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL40" s="35">
@@ -4783,8 +5363,19 @@
       </c>
       <c r="AM40" s="35"/>
       <c r="AN40" s="35"/>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO40" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP40" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -4821,11 +5412,11 @@
       <c r="AH41" s="33"/>
       <c r="AI41" s="33"/>
       <c r="AJ41" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK41" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL41" s="35">
@@ -4834,8 +5425,19 @@
       </c>
       <c r="AM41" s="35"/>
       <c r="AN41" s="35"/>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO41" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP41" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -4872,11 +5474,11 @@
       <c r="AH42" s="33"/>
       <c r="AI42" s="33"/>
       <c r="AJ42" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK42" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL42" s="35">
@@ -4885,8 +5487,19 @@
       </c>
       <c r="AM42" s="35"/>
       <c r="AN42" s="35"/>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO42" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -4923,11 +5536,11 @@
       <c r="AH43" s="33"/>
       <c r="AI43" s="33"/>
       <c r="AJ43" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK43" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL43" s="35">
@@ -4936,8 +5549,19 @@
       </c>
       <c r="AM43" s="35"/>
       <c r="AN43" s="35"/>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO43" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -4974,11 +5598,11 @@
       <c r="AH44" s="33"/>
       <c r="AI44" s="33"/>
       <c r="AJ44" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK44" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL44" s="35">
@@ -4987,8 +5611,19 @@
       </c>
       <c r="AM44" s="35"/>
       <c r="AN44" s="35"/>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO44" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP44" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -5025,11 +5660,11 @@
       <c r="AH45" s="33"/>
       <c r="AI45" s="33"/>
       <c r="AJ45" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK45" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL45" s="35">
@@ -5038,8 +5673,19 @@
       </c>
       <c r="AM45" s="35"/>
       <c r="AN45" s="35"/>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO45" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP45" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -5076,11 +5722,11 @@
       <c r="AH46" s="33"/>
       <c r="AI46" s="33"/>
       <c r="AJ46" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK46" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL46" s="35">
@@ -5089,8 +5735,19 @@
       </c>
       <c r="AM46" s="35"/>
       <c r="AN46" s="35"/>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO46" s="108">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP46" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="101">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -5127,11 +5784,11 @@
       <c r="AH47" s="33"/>
       <c r="AI47" s="33"/>
       <c r="AJ47" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK47" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL47" s="35">
@@ -5140,8 +5797,12 @@
       </c>
       <c r="AM47" s="35"/>
       <c r="AN47" s="35"/>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP47" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -5178,11 +5839,11 @@
       <c r="AH48" s="33"/>
       <c r="AI48" s="33"/>
       <c r="AJ48" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK48" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL48" s="35">
@@ -5191,8 +5852,12 @@
       </c>
       <c r="AM48" s="35"/>
       <c r="AN48" s="35"/>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP48" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:42">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -5229,11 +5894,11 @@
       <c r="AH49" s="33"/>
       <c r="AI49" s="33"/>
       <c r="AJ49" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK49" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL49" s="35">
@@ -5242,8 +5907,12 @@
       </c>
       <c r="AM49" s="35"/>
       <c r="AN49" s="35"/>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP49" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:42">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -5280,11 +5949,11 @@
       <c r="AH50" s="33"/>
       <c r="AI50" s="33"/>
       <c r="AJ50" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK50" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL50" s="35">
@@ -5293,8 +5962,12 @@
       </c>
       <c r="AM50" s="35"/>
       <c r="AN50" s="35"/>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP50" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:42">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -5331,11 +6004,11 @@
       <c r="AH51" s="33"/>
       <c r="AI51" s="33"/>
       <c r="AJ51" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK51" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL51" s="35">
@@ -5344,8 +6017,12 @@
       </c>
       <c r="AM51" s="35"/>
       <c r="AN51" s="35"/>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AP51" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -5382,11 +6059,11 @@
       <c r="AH52" s="33"/>
       <c r="AI52" s="33"/>
       <c r="AJ52" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK52" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL52" s="35">
@@ -5396,7 +6073,7 @@
       <c r="AM52" s="35"/>
       <c r="AN52" s="35"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:42">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -5433,11 +6110,11 @@
       <c r="AH53" s="33"/>
       <c r="AI53" s="33"/>
       <c r="AJ53" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK53" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL53" s="35">
@@ -5447,7 +6124,7 @@
       <c r="AM53" s="35"/>
       <c r="AN53" s="35"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:42">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -5484,11 +6161,11 @@
       <c r="AH54" s="33"/>
       <c r="AI54" s="33"/>
       <c r="AJ54" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK54" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL54" s="35">
@@ -5498,7 +6175,7 @@
       <c r="AM54" s="35"/>
       <c r="AN54" s="35"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:42">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -5535,11 +6212,11 @@
       <c r="AH55" s="33"/>
       <c r="AI55" s="33"/>
       <c r="AJ55" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK55" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL55" s="35">
@@ -5549,7 +6226,7 @@
       <c r="AM55" s="35"/>
       <c r="AN55" s="35"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:42">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -5586,11 +6263,11 @@
       <c r="AH56" s="33"/>
       <c r="AI56" s="33"/>
       <c r="AJ56" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK56" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL56" s="35">
@@ -5600,7 +6277,7 @@
       <c r="AM56" s="35"/>
       <c r="AN56" s="35"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:42">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -5637,11 +6314,11 @@
       <c r="AH57" s="33"/>
       <c r="AI57" s="33"/>
       <c r="AJ57" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK57" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL57" s="35">
@@ -5651,7 +6328,7 @@
       <c r="AM57" s="35"/>
       <c r="AN57" s="35"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:42">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -5688,11 +6365,11 @@
       <c r="AH58" s="33"/>
       <c r="AI58" s="33"/>
       <c r="AJ58" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK58" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL58" s="35">
@@ -5702,7 +6379,7 @@
       <c r="AM58" s="35"/>
       <c r="AN58" s="35"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:42">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -5739,11 +6416,11 @@
       <c r="AH59" s="33"/>
       <c r="AI59" s="33"/>
       <c r="AJ59" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK59" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL59" s="35">
@@ -5753,7 +6430,7 @@
       <c r="AM59" s="35"/>
       <c r="AN59" s="35"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:42">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -5790,11 +6467,11 @@
       <c r="AH60" s="33"/>
       <c r="AI60" s="33"/>
       <c r="AJ60" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AK60" s="35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AL60" s="35">
@@ -5816,42 +6493,42 @@
     <mergeCell ref="Z1:AI1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:C20 E3:E20">
-    <cfRule type="cellIs" dxfId="55" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="12" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C20 E3:E20">
-    <cfRule type="cellIs" dxfId="54" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A24">
-    <cfRule type="cellIs" dxfId="53" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A24">
-    <cfRule type="cellIs" dxfId="52" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="51" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A32">
-    <cfRule type="cellIs" dxfId="49" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A32">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5868,13 +6545,13 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>171</v>
       </c>
@@ -5889,7 +6566,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>189</v>
       </c>
@@ -5905,7 +6582,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>70</v>
       </c>
@@ -5920,7 +6597,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>179</v>
       </c>
@@ -5935,7 +6612,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>172</v>
       </c>
@@ -5948,7 +6625,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="11" t="s">
         <v>183</v>
       </c>
@@ -5966,7 +6643,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>186</v>
       </c>
@@ -5981,7 +6658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>181</v>
       </c>
@@ -5996,7 +6673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
         <v>173</v>
       </c>
@@ -6011,7 +6688,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
         <v>177</v>
       </c>
@@ -6029,7 +6706,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>185</v>
       </c>
@@ -6044,7 +6721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
         <v>82</v>
       </c>
@@ -6059,7 +6736,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="22" t="s">
         <v>125</v>
       </c>
@@ -6077,7 +6754,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="22" t="s">
         <v>130</v>
       </c>
@@ -6092,7 +6769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
         <v>174</v>
       </c>
@@ -6107,7 +6784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
         <v>182</v>
       </c>
@@ -6125,7 +6802,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>106</v>
       </c>
@@ -6140,7 +6817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
         <v>175</v>
       </c>
@@ -6153,7 +6830,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
         <v>180</v>
       </c>
@@ -6171,7 +6848,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
         <v>188</v>
       </c>
@@ -6186,7 +6863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="6" t="s">
         <v>176</v>
       </c>
@@ -6201,7 +6878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="22" t="s">
         <v>170</v>
       </c>
@@ -6216,7 +6893,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="6" t="s">
         <v>96</v>
       </c>
@@ -6231,7 +6908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="6" t="s">
         <v>93</v>
       </c>
@@ -6246,7 +6923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="6" t="s">
         <v>184</v>
       </c>
@@ -6264,7 +6941,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="6" t="s">
         <v>187</v>
       </c>
@@ -6279,7 +6956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="22" t="s">
         <v>122</v>
       </c>
@@ -6296,182 +6973,182 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:C1 E1 A8:A9">
-    <cfRule type="cellIs" dxfId="47" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="40" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1 E1 A8:A9">
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="45" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="38" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3">
-    <cfRule type="cellIs" dxfId="43" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="36" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C3 E3">
-    <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6">
-    <cfRule type="cellIs" dxfId="41" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="34" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6 E6">
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7 G7">
-    <cfRule type="cellIs" dxfId="39" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="32" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7 E7 G7">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="37" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="28" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11">
-    <cfRule type="cellIs" dxfId="35" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="26" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C11 E11">
-    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:C12 E12">
-    <cfRule type="cellIs" dxfId="33" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="24" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:C12 E12">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15">
-    <cfRule type="cellIs" dxfId="31" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="22" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:C15 E15">
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="29" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="20" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="27" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19 E19">
-    <cfRule type="cellIs" dxfId="25" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19 E19">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C21 E20:E21">
-    <cfRule type="cellIs" dxfId="23" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C21 E20:E21">
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:C23 E23">
-    <cfRule type="cellIs" dxfId="21" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:C23 E23">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27 E27">
-    <cfRule type="cellIs" dxfId="19" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:C27 E27">
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C29 E28:E29">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:C29 E28:E29">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:C31 E31">
-    <cfRule type="cellIs" dxfId="15" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:C31 E31">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="13" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6488,7 +7165,7 @@
       <selection pane="topRight" activeCell="T3" sqref="T3:T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -6498,7 +7175,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
       <c r="A1" s="80" t="s">
         <v>50</v>
       </c>
@@ -6552,7 +7229,7 @@
       <c r="AM1" s="86"/>
       <c r="AN1" s="86"/>
     </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15">
       <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
@@ -6634,7 +7311,7 @@
       <c r="AM2" s="37"/>
       <c r="AN2" s="37"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="2" t="s">
         <v>171</v>
       </c>
@@ -6688,7 +7365,7 @@
       <c r="AM3" s="40"/>
       <c r="AN3" s="40"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="6" t="s">
         <v>70</v>
       </c>
@@ -6742,7 +7419,7 @@
       <c r="AM4" s="40"/>
       <c r="AN4" s="40"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="11" t="s">
         <v>73</v>
       </c>
@@ -6792,7 +7469,7 @@
       <c r="AM5" s="40"/>
       <c r="AN5" s="40"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -6846,7 +7523,7 @@
       <c r="AM6" s="40"/>
       <c r="AN6" s="40"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="6" t="s">
         <v>172</v>
       </c>
@@ -6898,7 +7575,7 @@
       <c r="AM7" s="40"/>
       <c r="AN7" s="40"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="6" t="s">
         <v>173</v>
       </c>
@@ -6952,7 +7629,7 @@
       <c r="AM8" s="40"/>
       <c r="AN8" s="40"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="6" t="s">
         <v>82</v>
       </c>
@@ -7006,7 +7683,7 @@
       <c r="AM9" s="40"/>
       <c r="AN9" s="40"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="6" t="s">
         <v>174</v>
       </c>
@@ -7060,7 +7737,7 @@
       <c r="AM10" s="40"/>
       <c r="AN10" s="40"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="6" t="s">
         <v>175</v>
       </c>
@@ -7112,7 +7789,7 @@
       <c r="AM11" s="40"/>
       <c r="AN11" s="40"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="6" t="s">
         <v>176</v>
       </c>
@@ -7166,7 +7843,7 @@
       <c r="AM12" s="40"/>
       <c r="AN12" s="40"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="6" t="s">
         <v>177</v>
       </c>
@@ -7220,7 +7897,7 @@
       <c r="AM13" s="40"/>
       <c r="AN13" s="40"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="6" t="s">
         <v>93</v>
       </c>
@@ -7274,7 +7951,7 @@
       <c r="AM14" s="40"/>
       <c r="AN14" s="40"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="A15" s="63" t="s">
         <v>170</v>
       </c>
@@ -7326,7 +8003,7 @@
       <c r="AM15" s="40"/>
       <c r="AN15" s="40"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="A16" s="6" t="s">
         <v>96</v>
       </c>
@@ -7380,7 +8057,7 @@
       <c r="AM16" s="40"/>
       <c r="AN16" s="40"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="A17" s="6" t="s">
         <v>178</v>
       </c>
@@ -7434,7 +8111,7 @@
       <c r="AM17" s="40"/>
       <c r="AN17" s="40"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="A18" s="6" t="s">
         <v>101</v>
       </c>
@@ -7488,7 +8165,7 @@
       <c r="AM18" s="40"/>
       <c r="AN18" s="40"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="6" t="s">
         <v>182</v>
       </c>
@@ -7542,7 +8219,7 @@
       <c r="AM19" s="40"/>
       <c r="AN19" s="40"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20" s="6" t="s">
         <v>106</v>
       </c>
@@ -7596,7 +8273,7 @@
       <c r="AM20" s="40"/>
       <c r="AN20" s="40"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="11" t="s">
         <v>183</v>
       </c>
@@ -7650,7 +8327,7 @@
       <c r="AM21" s="40"/>
       <c r="AN21" s="40"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="6" t="s">
         <v>184</v>
       </c>
@@ -7704,7 +8381,7 @@
       <c r="AM22" s="40"/>
       <c r="AN22" s="40"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="22" t="s">
         <v>113</v>
       </c>
@@ -7758,7 +8435,7 @@
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="22"/>
       <c r="B24" s="22" t="s">
         <v>116</v>
@@ -7808,7 +8485,7 @@
       <c r="AM24" s="40"/>
       <c r="AN24" s="40"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="22" t="s">
         <v>179</v>
       </c>
@@ -7862,7 +8539,7 @@
       <c r="AM25" s="40"/>
       <c r="AN25" s="40"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26" s="22" t="s">
         <v>180</v>
       </c>
@@ -7916,7 +8593,7 @@
       <c r="AM26" s="40"/>
       <c r="AN26" s="40"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40">
       <c r="A27" s="22" t="s">
         <v>122</v>
       </c>
@@ -7970,7 +8647,7 @@
       <c r="AM27" s="40"/>
       <c r="AN27" s="40"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="A28" s="22" t="s">
         <v>125</v>
       </c>
@@ -8024,7 +8701,7 @@
       <c r="AM28" s="40"/>
       <c r="AN28" s="40"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="22" t="s">
         <v>185</v>
       </c>
@@ -8078,7 +8755,7 @@
       <c r="AM29" s="40"/>
       <c r="AN29" s="40"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="22" t="s">
         <v>130</v>
       </c>
@@ -8132,7 +8809,7 @@
       <c r="AM30" s="40"/>
       <c r="AN30" s="40"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="22" t="s">
         <v>186</v>
       </c>
@@ -8186,7 +8863,7 @@
       <c r="AM31" s="40"/>
       <c r="AN31" s="40"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="22" t="s">
         <v>187</v>
       </c>
@@ -8240,7 +8917,7 @@
       <c r="AM32" s="40"/>
       <c r="AN32" s="40"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="22" t="s">
         <v>181</v>
       </c>
@@ -8294,7 +8971,7 @@
       <c r="AM33" s="40"/>
       <c r="AN33" s="40"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="22" t="s">
         <v>188</v>
       </c>
@@ -8348,7 +9025,7 @@
       <c r="AM34" s="40"/>
       <c r="AN34" s="40"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -8390,7 +9067,7 @@
       <c r="AM35" s="40"/>
       <c r="AN35" s="40"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -8432,7 +9109,7 @@
       <c r="AM36" s="40"/>
       <c r="AN36" s="40"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -8474,7 +9151,7 @@
       <c r="AM37" s="40"/>
       <c r="AN37" s="40"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -8516,7 +9193,7 @@
       <c r="AM38" s="40"/>
       <c r="AN38" s="40"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -8558,7 +9235,7 @@
       <c r="AM39" s="40"/>
       <c r="AN39" s="40"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -8600,7 +9277,7 @@
       <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -8642,7 +9319,7 @@
       <c r="AM41" s="40"/>
       <c r="AN41" s="40"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -8684,7 +9361,7 @@
       <c r="AM42" s="40"/>
       <c r="AN42" s="40"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -8726,7 +9403,7 @@
       <c r="AM43" s="40"/>
       <c r="AN43" s="40"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -8768,7 +9445,7 @@
       <c r="AM44" s="40"/>
       <c r="AN44" s="40"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -8810,7 +9487,7 @@
       <c r="AM45" s="40"/>
       <c r="AN45" s="40"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -8852,7 +9529,7 @@
       <c r="AM46" s="40"/>
       <c r="AN46" s="40"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -8894,7 +9571,7 @@
       <c r="AM47" s="40"/>
       <c r="AN47" s="40"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -8936,7 +9613,7 @@
       <c r="AM48" s="40"/>
       <c r="AN48" s="40"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -8978,7 +9655,7 @@
       <c r="AM49" s="40"/>
       <c r="AN49" s="40"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -9020,7 +9697,7 @@
       <c r="AM50" s="40"/>
       <c r="AN50" s="40"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -9062,7 +9739,7 @@
       <c r="AM51" s="40"/>
       <c r="AN51" s="40"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -9104,7 +9781,7 @@
       <c r="AM52" s="40"/>
       <c r="AN52" s="40"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -9146,7 +9823,7 @@
       <c r="AM53" s="40"/>
       <c r="AN53" s="40"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -9188,7 +9865,7 @@
       <c r="AM54" s="40"/>
       <c r="AN54" s="40"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -9230,7 +9907,7 @@
       <c r="AM55" s="40"/>
       <c r="AN55" s="40"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -9272,7 +9949,7 @@
       <c r="AM56" s="40"/>
       <c r="AN56" s="40"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -9314,7 +9991,7 @@
       <c r="AM57" s="40"/>
       <c r="AN57" s="40"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -9356,7 +10033,7 @@
       <c r="AM58" s="40"/>
       <c r="AN58" s="40"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -9398,7 +10075,7 @@
       <c r="AM59" s="40"/>
       <c r="AN59" s="40"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -9440,7 +10117,7 @@
       <c r="AM60" s="40"/>
       <c r="AN60" s="40"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -9497,12 +10174,12 @@
     <mergeCell ref="S1:U1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:C21 E3:E21">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C21 E3:E21">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9513,18 +10190,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63A550D-927F-4479-ACD2-C6861C352154}">
-  <dimension ref="A2:C33"/>
+  <dimension ref="A2:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="I2" sqref="I2:I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="75" t="s">
         <v>130</v>
       </c>
@@ -9534,8 +10211,17 @@
       <c r="C2" s="66">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G2" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="112" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="108">
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="6" t="s">
         <v>177</v>
       </c>
@@ -9545,8 +10231,17 @@
       <c r="C3" s="66">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G3" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="109" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="108">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>184</v>
       </c>
@@ -9556,8 +10251,17 @@
       <c r="C4" s="66">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G4" s="103" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="109" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="108">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="22" t="s">
         <v>113</v>
       </c>
@@ -9567,8 +10271,17 @@
       <c r="C5" s="66">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G5" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="109" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="108">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="22" t="s">
         <v>125</v>
       </c>
@@ -9578,8 +10291,17 @@
       <c r="C6" s="66">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G6" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="108">
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>70</v>
       </c>
@@ -9589,8 +10311,17 @@
       <c r="C7" s="66">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G7" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="108">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
         <v>82</v>
       </c>
@@ -9600,8 +10331,17 @@
       <c r="C8" s="66">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G8" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="108">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
         <v>101</v>
       </c>
@@ -9611,8 +10351,17 @@
       <c r="C9" s="66">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G9" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="109" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="108">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
         <v>182</v>
       </c>
@@ -9622,8 +10371,17 @@
       <c r="C10" s="66">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G10" s="103" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="109" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="108">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="22"/>
       <c r="B11" s="22" t="s">
         <v>116</v>
@@ -9631,8 +10389,17 @@
       <c r="C11" s="66">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G11" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="109" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="108">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="22" t="s">
         <v>122</v>
       </c>
@@ -9642,8 +10409,17 @@
       <c r="C12" s="66">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G12" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="109" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="108">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
@@ -9653,8 +10429,17 @@
       <c r="C13" s="66">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G13" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="109" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="108">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
         <v>172</v>
       </c>
@@ -9664,8 +10449,17 @@
       <c r="C14" s="66">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G14" s="103" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="108">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="22" t="s">
         <v>181</v>
       </c>
@@ -9675,8 +10469,17 @@
       <c r="C15" s="66">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G15" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="109" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="108">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="22" t="s">
         <v>188</v>
       </c>
@@ -9686,8 +10489,17 @@
       <c r="C16" s="66">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G16" s="103" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="109" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="108">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
         <v>175</v>
       </c>
@@ -9697,8 +10509,17 @@
       <c r="C17" s="66">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G17" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="108">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
         <v>93</v>
       </c>
@@ -9708,8 +10529,17 @@
       <c r="C18" s="66">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G18" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="109" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="108">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="11" t="s">
         <v>183</v>
       </c>
@@ -9719,8 +10549,17 @@
       <c r="C19" s="66">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G19" s="105" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="109" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="108">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="6" t="s">
         <v>173</v>
       </c>
@@ -9730,8 +10569,17 @@
       <c r="C20" s="66">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G20" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" s="109" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="108">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="22" t="s">
         <v>187</v>
       </c>
@@ -9741,8 +10589,17 @@
       <c r="C21" s="66">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G21" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="109" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="108">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
         <v>174</v>
       </c>
@@ -9752,8 +10609,17 @@
       <c r="C22" s="66">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G22" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="108">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="6" t="s">
         <v>176</v>
       </c>
@@ -9763,8 +10629,17 @@
       <c r="C23" s="66">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G23" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23" s="108">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
         <v>96</v>
       </c>
@@ -9774,8 +10649,17 @@
       <c r="C24" s="66">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G24" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" s="109" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="108">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
         <v>106</v>
       </c>
@@ -9785,8 +10669,17 @@
       <c r="C25" s="66">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G25" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="H25" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="108">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="22" t="s">
         <v>185</v>
       </c>
@@ -9796,8 +10689,17 @@
       <c r="C26" s="66">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G26" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="108">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="63" t="s">
         <v>170</v>
       </c>
@@ -9807,8 +10709,17 @@
       <c r="C27" s="66">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G27" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="109" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="108">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="22" t="s">
         <v>180</v>
       </c>
@@ -9818,8 +10729,17 @@
       <c r="C28" s="66">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G28" s="106" t="s">
+        <v>131</v>
+      </c>
+      <c r="H28" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28" s="108">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="6" t="s">
         <v>171</v>
       </c>
@@ -9829,8 +10749,17 @@
       <c r="C29" s="66">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G29" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29" s="109" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="108">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="22" t="s">
         <v>186</v>
       </c>
@@ -9840,8 +10769,17 @@
       <c r="C30" s="66">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G30" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="109" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="108">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="22" t="s">
         <v>179</v>
       </c>
@@ -9851,8 +10789,17 @@
       <c r="C31" s="66">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G31" s="106" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="109" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" s="108">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
         <v>178</v>
       </c>
@@ -9862,8 +10809,17 @@
       <c r="C32" s="66">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G32" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="109" t="s">
+        <v>139</v>
+      </c>
+      <c r="I32" s="108">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="11" t="s">
         <v>73</v>
       </c>
@@ -9877,12 +10833,22 @@
     <sortCondition descending="1" ref="C2:C33"/>
   </sortState>
   <conditionalFormatting sqref="A2:B20">
-    <cfRule type="cellIs" dxfId="9" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B20">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G19">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9894,12 +10860,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN63"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+      <selection pane="topRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -9909,7 +10875,7 @@
     <col min="38" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
       <c r="A1" s="80" t="s">
         <v>50</v>
       </c>
@@ -9961,7 +10927,7 @@
       <c r="AM1" s="86"/>
       <c r="AN1" s="86"/>
     </row>
-    <row r="2" spans="1:40" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15">
       <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
@@ -10051,7 +11017,7 @@
       <c r="AM2" s="37"/>
       <c r="AN2" s="37"/>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40">
       <c r="A3" s="52" t="s">
         <v>171</v>
       </c>
@@ -10111,7 +11077,7 @@
       <c r="AM3" s="40"/>
       <c r="AN3" s="40"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40">
       <c r="A4" s="56" t="s">
         <v>70</v>
       </c>
@@ -10171,7 +11137,7 @@
       <c r="AM4" s="40"/>
       <c r="AN4" s="40"/>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40">
       <c r="A5" s="61" t="s">
         <v>73</v>
       </c>
@@ -10221,7 +11187,7 @@
       <c r="AM5" s="40"/>
       <c r="AN5" s="40"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40">
       <c r="A6" s="56" t="s">
         <v>75</v>
       </c>
@@ -10281,7 +11247,7 @@
       <c r="AM6" s="40"/>
       <c r="AN6" s="40"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40">
       <c r="A7" s="56" t="s">
         <v>172</v>
       </c>
@@ -10339,7 +11305,7 @@
       <c r="AM7" s="40"/>
       <c r="AN7" s="40"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40">
       <c r="A8" s="56" t="s">
         <v>173</v>
       </c>
@@ -10399,7 +11365,7 @@
       <c r="AM8" s="40"/>
       <c r="AN8" s="40"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40">
       <c r="A9" s="56" t="s">
         <v>82</v>
       </c>
@@ -10459,7 +11425,7 @@
       <c r="AM9" s="40"/>
       <c r="AN9" s="40"/>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40">
       <c r="A10" s="56" t="s">
         <v>174</v>
       </c>
@@ -10519,7 +11485,7 @@
       <c r="AM10" s="40"/>
       <c r="AN10" s="40"/>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40">
       <c r="A11" s="56" t="s">
         <v>175</v>
       </c>
@@ -10579,7 +11545,7 @@
       <c r="AM11" s="40"/>
       <c r="AN11" s="40"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40">
       <c r="A12" s="56" t="s">
         <v>176</v>
       </c>
@@ -10639,7 +11605,7 @@
       <c r="AM12" s="40"/>
       <c r="AN12" s="40"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40">
       <c r="A13" s="56" t="s">
         <v>177</v>
       </c>
@@ -10699,7 +11665,7 @@
       <c r="AM13" s="40"/>
       <c r="AN13" s="40"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40">
       <c r="A14" s="56" t="s">
         <v>93</v>
       </c>
@@ -10759,7 +11725,7 @@
       <c r="AM14" s="40"/>
       <c r="AN14" s="40"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40">
       <c r="A15" s="56" t="s">
         <v>170</v>
       </c>
@@ -10817,7 +11783,7 @@
       <c r="AM15" s="40"/>
       <c r="AN15" s="40"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40">
       <c r="A16" s="56" t="s">
         <v>96</v>
       </c>
@@ -10877,7 +11843,7 @@
       <c r="AM16" s="40"/>
       <c r="AN16" s="40"/>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40">
       <c r="A17" s="56" t="s">
         <v>178</v>
       </c>
@@ -10937,7 +11903,7 @@
       <c r="AM17" s="40"/>
       <c r="AN17" s="40"/>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40">
       <c r="A18" s="56" t="s">
         <v>101</v>
       </c>
@@ -10997,7 +11963,7 @@
       <c r="AM18" s="40"/>
       <c r="AN18" s="40"/>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40">
       <c r="A19" s="6" t="s">
         <v>182</v>
       </c>
@@ -11057,7 +12023,7 @@
       <c r="AM19" s="40"/>
       <c r="AN19" s="40"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40">
       <c r="A20" s="6" t="s">
         <v>106</v>
       </c>
@@ -11117,7 +12083,7 @@
       <c r="AM20" s="40"/>
       <c r="AN20" s="40"/>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40">
       <c r="A21" s="11" t="s">
         <v>183</v>
       </c>
@@ -11177,7 +12143,7 @@
       <c r="AM21" s="40"/>
       <c r="AN21" s="40"/>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:40">
       <c r="A22" s="6" t="s">
         <v>184</v>
       </c>
@@ -11237,7 +12203,7 @@
       <c r="AM22" s="40"/>
       <c r="AN22" s="40"/>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:40">
       <c r="A23" s="22" t="s">
         <v>113</v>
       </c>
@@ -11297,7 +12263,7 @@
       <c r="AM23" s="40"/>
       <c r="AN23" s="40"/>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:40">
       <c r="A24" s="6" t="s">
         <v>189</v>
       </c>
@@ -11316,7 +12282,9 @@
         <v>100</v>
       </c>
       <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="I24" s="28">
+        <v>90</v>
+      </c>
       <c r="J24" s="70">
         <v>95</v>
       </c>
@@ -11351,7 +12319,7 @@
       <c r="AM24" s="40"/>
       <c r="AN24" s="40"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:40">
       <c r="A25" s="6" t="s">
         <v>179</v>
       </c>
@@ -11411,7 +12379,7 @@
       <c r="AM25" s="40"/>
       <c r="AN25" s="40"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:40">
       <c r="A26" s="6" t="s">
         <v>180</v>
       </c>
@@ -11469,7 +12437,7 @@
       <c r="AM26" s="40"/>
       <c r="AN26" s="40"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:40">
       <c r="A27" s="22" t="s">
         <v>122</v>
       </c>
@@ -11529,7 +12497,7 @@
       <c r="AM27" s="40"/>
       <c r="AN27" s="40"/>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:40">
       <c r="A28" s="22" t="s">
         <v>125</v>
       </c>
@@ -11589,7 +12557,7 @@
       <c r="AM28" s="40"/>
       <c r="AN28" s="40"/>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:40">
       <c r="A29" s="6" t="s">
         <v>185</v>
       </c>
@@ -11649,7 +12617,7 @@
       <c r="AM29" s="40"/>
       <c r="AN29" s="40"/>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:40">
       <c r="A30" s="22" t="s">
         <v>130</v>
       </c>
@@ -11709,7 +12677,7 @@
       <c r="AM30" s="40"/>
       <c r="AN30" s="40"/>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:40">
       <c r="A31" s="6" t="s">
         <v>186</v>
       </c>
@@ -11769,7 +12737,7 @@
       <c r="AM31" s="40"/>
       <c r="AN31" s="40"/>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:40">
       <c r="A32" s="6" t="s">
         <v>187</v>
       </c>
@@ -11829,7 +12797,7 @@
       <c r="AM32" s="40"/>
       <c r="AN32" s="40"/>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:40">
       <c r="A33" s="6" t="s">
         <v>181</v>
       </c>
@@ -11889,7 +12857,7 @@
       <c r="AM33" s="40"/>
       <c r="AN33" s="40"/>
     </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:40">
       <c r="A34" s="6" t="s">
         <v>188</v>
       </c>
@@ -11949,7 +12917,7 @@
       <c r="AM34" s="40"/>
       <c r="AN34" s="40"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:40">
       <c r="A35" s="22"/>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -11991,7 +12959,7 @@
       <c r="AM35" s="40"/>
       <c r="AN35" s="40"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:40">
       <c r="A36" s="22"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -12033,7 +13001,7 @@
       <c r="AM36" s="40"/>
       <c r="AN36" s="40"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40">
       <c r="A37" s="22"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
@@ -12075,7 +13043,7 @@
       <c r="AM37" s="40"/>
       <c r="AN37" s="40"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:40">
       <c r="A38" s="22"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
@@ -12117,7 +13085,7 @@
       <c r="AM38" s="40"/>
       <c r="AN38" s="40"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:40">
       <c r="A39" s="22"/>
       <c r="B39" s="23"/>
       <c r="C39" s="23"/>
@@ -12159,7 +13127,7 @@
       <c r="AM39" s="40"/>
       <c r="AN39" s="40"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:40">
       <c r="A40" s="22"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
@@ -12201,7 +13169,7 @@
       <c r="AM40" s="40"/>
       <c r="AN40" s="40"/>
     </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:40">
       <c r="A41" s="22"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
@@ -12243,7 +13211,7 @@
       <c r="AM41" s="40"/>
       <c r="AN41" s="40"/>
     </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:40">
       <c r="A42" s="22"/>
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
@@ -12285,7 +13253,7 @@
       <c r="AM42" s="40"/>
       <c r="AN42" s="40"/>
     </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:40">
       <c r="A43" s="22"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
@@ -12327,7 +13295,7 @@
       <c r="AM43" s="40"/>
       <c r="AN43" s="40"/>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:40">
       <c r="A44" s="22"/>
       <c r="B44" s="23"/>
       <c r="C44" s="23"/>
@@ -12369,7 +13337,7 @@
       <c r="AM44" s="40"/>
       <c r="AN44" s="40"/>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:40">
       <c r="A45" s="22"/>
       <c r="B45" s="23"/>
       <c r="C45" s="23"/>
@@ -12411,7 +13379,7 @@
       <c r="AM45" s="40"/>
       <c r="AN45" s="40"/>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:40">
       <c r="A46" s="22"/>
       <c r="B46" s="23"/>
       <c r="C46" s="23"/>
@@ -12453,7 +13421,7 @@
       <c r="AM46" s="40"/>
       <c r="AN46" s="40"/>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:40">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="23"/>
@@ -12495,7 +13463,7 @@
       <c r="AM47" s="40"/>
       <c r="AN47" s="40"/>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:40">
       <c r="A48" s="22"/>
       <c r="B48" s="23"/>
       <c r="C48" s="23"/>
@@ -12537,7 +13505,7 @@
       <c r="AM48" s="40"/>
       <c r="AN48" s="40"/>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:40">
       <c r="A49" s="22"/>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -12579,7 +13547,7 @@
       <c r="AM49" s="40"/>
       <c r="AN49" s="40"/>
     </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:40">
       <c r="A50" s="22"/>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -12621,7 +13589,7 @@
       <c r="AM50" s="40"/>
       <c r="AN50" s="40"/>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:40">
       <c r="A51" s="22"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -12663,7 +13631,7 @@
       <c r="AM51" s="40"/>
       <c r="AN51" s="40"/>
     </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:40">
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" s="23"/>
@@ -12705,7 +13673,7 @@
       <c r="AM52" s="40"/>
       <c r="AN52" s="40"/>
     </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:40">
       <c r="A53" s="22"/>
       <c r="B53" s="23"/>
       <c r="C53" s="23"/>
@@ -12747,7 +13715,7 @@
       <c r="AM53" s="40"/>
       <c r="AN53" s="40"/>
     </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:40">
       <c r="A54" s="22"/>
       <c r="B54" s="23"/>
       <c r="C54" s="23"/>
@@ -12789,7 +13757,7 @@
       <c r="AM54" s="40"/>
       <c r="AN54" s="40"/>
     </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40">
       <c r="A55" s="22"/>
       <c r="B55" s="23"/>
       <c r="C55" s="23"/>
@@ -12831,7 +13799,7 @@
       <c r="AM55" s="40"/>
       <c r="AN55" s="40"/>
     </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:40">
       <c r="A56" s="22"/>
       <c r="B56" s="23"/>
       <c r="C56" s="23"/>
@@ -12873,7 +13841,7 @@
       <c r="AM56" s="40"/>
       <c r="AN56" s="40"/>
     </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:40">
       <c r="A57" s="22"/>
       <c r="B57" s="23"/>
       <c r="C57" s="23"/>
@@ -12915,7 +13883,7 @@
       <c r="AM57" s="40"/>
       <c r="AN57" s="40"/>
     </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:40">
       <c r="A58" s="22"/>
       <c r="B58" s="23"/>
       <c r="C58" s="23"/>
@@ -12957,7 +13925,7 @@
       <c r="AM58" s="40"/>
       <c r="AN58" s="40"/>
     </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40">
       <c r="A59" s="22"/>
       <c r="B59" s="23"/>
       <c r="C59" s="23"/>
@@ -12999,7 +13967,7 @@
       <c r="AM59" s="40"/>
       <c r="AN59" s="40"/>
     </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40">
       <c r="A60" s="22"/>
       <c r="B60" s="23"/>
       <c r="C60" s="23"/>
@@ -13041,7 +14009,7 @@
       <c r="AM60" s="40"/>
       <c r="AN60" s="40"/>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40">
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" s="23"/>
@@ -13083,7 +14051,7 @@
       <c r="AM61" s="40"/>
       <c r="AN61" s="40"/>
     </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:40">
       <c r="A62" s="22"/>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
@@ -13125,7 +14093,7 @@
       <c r="AM62" s="40"/>
       <c r="AN62" s="40"/>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40">
       <c r="Z63" s="38"/>
       <c r="AA63" s="38"/>
       <c r="AB63" s="38"/>
@@ -13143,42 +14111,42 @@
     <mergeCell ref="Z1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:C22 E3:E22">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:C22 E3:E22">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A26">
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:A26">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A34">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:A34">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
